--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV/чистый бланк/Заказ Новое Время 01,12. Мелитополь№1.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV/чистый бланк/Заказ Новое Время 01,12. Мелитополь№1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E439F623-08F1-49B0-BB65-6281F8B20FFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CEEB42-F991-48D6-8468-F6BE4A41230B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,9 +371,6 @@
     <t>БУРГУНДИЯ Папа может с/к в/у 1/250 8шт.</t>
   </si>
   <si>
-    <t>САЛЯМИ МЕЛКОЗЕРНЕНАЯ с/к в/у 1/120_60с</t>
-  </si>
-  <si>
     <t>САЛЬЧИЧОН Останкино с/к в/у 1/220 8шт.</t>
   </si>
   <si>
@@ -471,6 +468,9 @@
   </si>
   <si>
     <t>МЯСНЫЕ С ГОВЯД.ПМ сос п/о мгс 0.4кг 6шт.</t>
+  </si>
+  <si>
+    <t>САЛЯМИ МЕЛКОЗЕРНЕНАЯ с/к в/у 1/120 8шт.</t>
   </si>
 </sst>
 </file>
@@ -1557,8 +1557,8 @@
   <dimension ref="A1:K1656"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="9" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2127,7 +2127,7 @@
         <v>7343</v>
       </c>
       <c r="B26" s="80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C26" s="73" t="s">
         <v>21</v>
@@ -2386,7 +2386,7 @@
         <v>7255</v>
       </c>
       <c r="B36" s="64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C36" s="65" t="s">
         <v>32</v>
@@ -4106,7 +4106,7 @@
         <v>3986</v>
       </c>
       <c r="B98" s="80" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C98" s="73" t="s">
         <v>32</v>
@@ -4162,7 +4162,7 @@
         <v>6832</v>
       </c>
       <c r="B100" s="80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C100" s="73" t="s">
         <v>23</v>
@@ -4186,7 +4186,7 @@
         <v>7299</v>
       </c>
       <c r="B101" s="80" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C101" s="73" t="s">
         <v>23</v>
@@ -4263,16 +4263,16 @@
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="60" t="str">
         <f t="shared" ref="A104:A131" si="8">RIGHT(D104,4)</f>
-        <v>5682</v>
+        <v>7382</v>
       </c>
       <c r="B104" s="80" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="C104" s="73" t="s">
         <v>21</v>
       </c>
       <c r="D104" s="74">
-        <v>1001193115682</v>
+        <v>1001203117382</v>
       </c>
       <c r="E104" s="24"/>
       <c r="F104" s="23">
@@ -4296,7 +4296,7 @@
         <v>7147</v>
       </c>
       <c r="B105" s="80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C105" s="73" t="s">
         <v>21</v>
@@ -4322,7 +4322,7 @@
         <v>7229</v>
       </c>
       <c r="B106" s="80" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C106" s="73" t="s">
         <v>21</v>
@@ -4348,7 +4348,7 @@
         <v>7150</v>
       </c>
       <c r="B107" s="80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C107" s="73" t="s">
         <v>23</v>
@@ -4374,7 +4374,7 @@
         <v>7227</v>
       </c>
       <c r="B108" s="80" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C108" s="73" t="s">
         <v>21</v>
@@ -4400,7 +4400,7 @@
         <v>7225</v>
       </c>
       <c r="B109" s="80" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C109" s="73" t="s">
         <v>21</v>
@@ -4426,7 +4426,7 @@
         <v>7228</v>
       </c>
       <c r="B110" s="80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C110" s="73" t="s">
         <v>21</v>
@@ -4452,7 +4452,7 @@
         <v>6221</v>
       </c>
       <c r="B111" s="80" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C111" s="73" t="s">
         <v>21</v>
@@ -4478,7 +4478,7 @@
         <v>4117</v>
       </c>
       <c r="B112" s="80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C112" s="73" t="s">
         <v>23</v>
@@ -4508,7 +4508,7 @@
         <v>5483</v>
       </c>
       <c r="B113" s="80" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C113" s="73" t="s">
         <v>21</v>
@@ -4538,7 +4538,7 @@
         <v>6453</v>
       </c>
       <c r="B114" s="80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C114" s="73" t="s">
         <v>32</v>
@@ -4568,7 +4568,7 @@
         <v>6228</v>
       </c>
       <c r="B115" s="80" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C115" s="73" t="s">
         <v>32</v>
@@ -4594,7 +4594,7 @@
         <v>3287</v>
       </c>
       <c r="B116" s="80" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C116" s="73" t="s">
         <v>23</v>
@@ -4624,7 +4624,7 @@
         <v/>
       </c>
       <c r="B117" s="47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C117" s="47"/>
       <c r="D117" s="47"/>
@@ -4641,7 +4641,7 @@
         <v>6866</v>
       </c>
       <c r="B118" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C118" s="73" t="s">
         <v>37</v>
@@ -4665,7 +4665,7 @@
         <v>3215</v>
       </c>
       <c r="B119" s="80" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C119" s="73" t="s">
         <v>32</v>
@@ -4695,7 +4695,7 @@
         <v>5452</v>
       </c>
       <c r="B120" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C120" s="73" t="s">
         <v>23</v>
@@ -4725,7 +4725,7 @@
         <v>5495</v>
       </c>
       <c r="B121" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C121" s="73" t="s">
         <v>21</v>
@@ -4755,7 +4755,7 @@
         <v>6495</v>
       </c>
       <c r="B122" s="51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C122" s="73" t="s">
         <v>21</v>
@@ -4785,7 +4785,7 @@
         <v/>
       </c>
       <c r="B123" s="47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C123" s="47"/>
       <c r="D123" s="47"/>
@@ -4802,7 +4802,7 @@
         <v>6448</v>
       </c>
       <c r="B124" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C124" s="73" t="s">
         <v>32</v>
@@ -4832,7 +4832,7 @@
         <v>6620</v>
       </c>
       <c r="B125" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C125" s="73" t="s">
         <v>23</v>
@@ -4856,7 +4856,7 @@
         <v>6279</v>
       </c>
       <c r="B126" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C126" s="73" t="s">
         <v>21</v>
@@ -4882,7 +4882,7 @@
         <v>6208</v>
       </c>
       <c r="B127" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C127" s="73" t="s">
         <v>21</v>
@@ -4908,7 +4908,7 @@
         <v>7090</v>
       </c>
       <c r="B128" s="37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C128" s="73" t="s">
         <v>32</v>
@@ -4938,7 +4938,7 @@
         <v>7187</v>
       </c>
       <c r="B129" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C129" s="73" t="s">
         <v>32</v>
@@ -4964,7 +4964,7 @@
         <v>7103</v>
       </c>
       <c r="B130" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C130" s="54" t="s">
         <v>32</v>
@@ -4995,7 +4995,7 @@
         <v>6872</v>
       </c>
       <c r="B131" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C131" s="73" t="s">
         <v>23</v>
@@ -5018,7 +5018,7 @@
     <row r="132" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="63"/>
       <c r="B132" s="50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C132" s="16"/>
       <c r="D132" s="38"/>
